--- a/FA10_TestData_ManuallyAddAssets_21C.xlsx
+++ b/FA10_TestData_ManuallyAddAssets_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC15680-D0D5-4D14-82A8-BF3BF6DCB8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923B948-6BB3-4F6A-AE00-17E4BA44F94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>UserName</t>
   </si>
@@ -109,15 +109,6 @@
   </si>
   <si>
     <t>InServiceDate</t>
-  </si>
-  <si>
-    <t>https://edrx.fa.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>US ASSET BOOK</t>
@@ -677,55 +668,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.26953125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.26953125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.1796875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.1796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.6328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.81640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.36328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.453125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16" width="12.54296875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.1796875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.453125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.90625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.90625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="17.90625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.90625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.08984375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16" width="12.5546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.88671875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="14" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="34.6328125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.90625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="7.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="31.7265625" style="6"/>
+    <col min="37" max="37" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="31.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="12" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -751,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
@@ -760,22 +751,22 @@
         <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>12</v>
@@ -799,54 +790,48 @@
       <c r="AG1" s="3"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>11</v>
@@ -855,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="8"/>
@@ -878,12 +863,9 @@
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://edrx.fa.us2.oraclecloud.com/" xr:uid="{ACB36DCA-7540-4F1D-BA23-82AF6940CFAE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -893,12 +875,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +896,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FA10_TestData_ManuallyAddAssets_21C.xlsx
+++ b/FA10_TestData_ManuallyAddAssets_21C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Fixed Asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup_IGA_Master\UIAF_Selenium_IGA\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923B948-6BB3-4F6A-AE00-17E4BA44F94D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05764D-CE44-45A3-A5DB-D7377AF49373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Priyank Jain</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{499318D0-7B0E-4047-B30D-A48559EBCE20}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{499318D0-7B0E-4047-B30D-A48559EBCE20}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -111,30 +111,12 @@
     <t>InServiceDate</t>
   </si>
   <si>
-    <t>US ASSET BOOK</t>
-  </si>
-  <si>
-    <t>FURNITURE-FURNITU 7Y</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>101.0000.891004.000000.0000.000.0000</t>
-  </si>
-  <si>
-    <t>31-Mar-2019</t>
-  </si>
-  <si>
     <t>AutoTest6</t>
   </si>
   <si>
-    <t>AutoTest3</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -144,9 +126,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>AssetNumber_MAA</t>
   </si>
   <si>
@@ -159,14 +138,65 @@
     <t>12345678</t>
   </si>
   <si>
-    <t>MATRD1RD002</t>
+    <t>Anusuya.Lakkannai@snb.ca</t>
+  </si>
+  <si>
+    <t>Aishu@123</t>
+  </si>
+  <si>
+    <t>https://emgi-dev4.login.ca3.oraclecloud.com</t>
+  </si>
+  <si>
+    <t>GNB BOOK_LIVRE</t>
+  </si>
+  <si>
+    <t>Land Test</t>
+  </si>
+  <si>
+    <t>Highway.ROUTE 101</t>
+  </si>
+  <si>
+    <t>280.43091.963401.83311.100.10101.000.0000.0000</t>
+  </si>
+  <si>
+    <t>2,000,000.00</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>MATRD1RD011</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>LowExplicitWait</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>HighestExplicitWait</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,15 +252,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +263,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -284,12 +331,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -666,206 +719,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16" width="12.5546875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.88671875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="34.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="31.77734375" style="6"/>
+    <col min="1" max="1" width="13.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.21875" style="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.21875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="34.5546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="34.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.21875" style="6" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.5546875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="22.5546875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="12.5546875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="12.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.88671875" style="6" customWidth="1"/>
+    <col min="30" max="30" width="17.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="20.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="14" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="34.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="7.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="31.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:41" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="1:41" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="5">
+        <v>12800.12804</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="5">
-        <v>10</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="9"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1">
+  <conditionalFormatting sqref="V1">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
     <cfRule type="duplicateValues" dxfId="4" priority="8"/>
     <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="W1">
     <cfRule type="duplicateValues" dxfId="2" priority="13"/>
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" tooltip="https://emgi-dev4.login.ca3.oraclecloud.com" display="https://emgi-dev4.login.ca3.oraclecloud.com/" xr:uid="{A2C2478B-A8D6-40AA-9CB8-3575BA6B0942}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
